--- a/TInfenion_30H/findchip_stock.xlsx
+++ b/TInfenion_30H/findchip_stock.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G555"/>
+  <dimension ref="A1:G558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18761,6 +18761,105 @@
         </is>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>CYAT61659-64AA48T</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D556" t="b">
+        <v>1</v>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/CYAT61659-64AA48T/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F556" t="n">
+        <v>0</v>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>CYAT61659-64AA48T</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D557" t="b">
+        <v>1</v>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F557" t="n">
+        <v>0</v>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>CYAT61659-64AA48T</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D558" t="b">
+        <v>1</v>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/CYAT61659-64AA48T?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F558" t="n">
+        <v>0</v>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TInfenion_30H/findchip_stock.xlsx
+++ b/TInfenion_30H/findchip_stock.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G558"/>
+  <dimension ref="A1:G585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18860,6 +18860,897 @@
         </is>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>CYAT61659-64AS48</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D559" t="b">
+        <v>1</v>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/CYAT61659-64AS48/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F559" t="n">
+        <v>0</v>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>CYAT61659-64AS48</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D560" t="b">
+        <v>1</v>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F560" t="n">
+        <v>0</v>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>CYAT61659-64AS48</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D561" t="b">
+        <v>1</v>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/CYAT61659-64AS48?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F561" t="n">
+        <v>0</v>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>CYAT61659-64AS48T</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D562" t="b">
+        <v>1</v>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/CYAT61659-64AS48T/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F562" t="n">
+        <v>0</v>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>CYAT61659-64AS48T</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D563" t="b">
+        <v>1</v>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F563" t="n">
+        <v>0</v>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>CYAT61659-64AS48T</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D564" t="b">
+        <v>1</v>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/CYAT61659-64AS48T?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F564" t="n">
+        <v>0</v>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>CYAT71658-56LWA41</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D565" t="b">
+        <v>1</v>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/CYAT71658-56LWA41/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F565" t="n">
+        <v>0</v>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>CYAT71658-56LWA41</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D566" t="b">
+        <v>1</v>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F566" t="n">
+        <v>0</v>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>CYAT71658-56LWA41</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D567" t="b">
+        <v>1</v>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F567" t="n">
+        <v>0</v>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>CYAT71658-56LWA41T</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D568" t="b">
+        <v>1</v>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/CYAT71658-56LWA41T/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F568" t="n">
+        <v>0</v>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>CYAT71658-56LWA41T</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D569" t="b">
+        <v>1</v>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F569" t="n">
+        <v>0</v>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>CYAT71658-56LWA41T</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D570" t="b">
+        <v>1</v>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F570" t="n">
+        <v>0</v>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>CYAT71658-56LWS41</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D571" t="b">
+        <v>1</v>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/CYAT71658-56LWS41/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F571" t="n">
+        <v>0</v>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>CYAT71658-56LWS41</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D572" t="b">
+        <v>1</v>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F572" t="n">
+        <v>0</v>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>CYAT71658-56LWS41</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D573" t="b">
+        <v>1</v>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F573" t="n">
+        <v>0</v>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>CYAT71658-56LWS41T</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D574" t="b">
+        <v>1</v>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/CYAT71658-56LWS41T/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F574" t="n">
+        <v>0</v>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>CYAT71658-56LWS41T</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D575" t="b">
+        <v>1</v>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F575" t="n">
+        <v>0</v>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>CYAT71658-56LWS41T</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D576" t="b">
+        <v>1</v>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F576" t="n">
+        <v>0</v>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>CYAT81650-64AA48</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D577" t="b">
+        <v>1</v>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/CYAT81650-64AA48/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F577" t="n">
+        <v>0</v>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>CYAT81650-64AA48</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D578" t="b">
+        <v>1</v>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F578" t="n">
+        <v>0</v>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>CYAT81650-64AA48</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D579" t="b">
+        <v>1</v>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/CYAT81650-64AA48?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F579" t="n">
+        <v>0</v>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>CYAT81650-64AA48T</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D580" t="b">
+        <v>1</v>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/CYAT81650-64AA48T/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F580" t="n">
+        <v>0</v>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>CYAT81650-64AA48T</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D581" t="b">
+        <v>1</v>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F581" t="n">
+        <v>0</v>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>CYAT81650-64AA48T</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D582" t="b">
+        <v>1</v>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/CYAT81650-64AA48T?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F582" t="n">
+        <v>0</v>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>CYAT81650-64AS48</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D583" t="b">
+        <v>1</v>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/CYAT81650-64AS48/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F583" t="n">
+        <v>0</v>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>CYAT81650-64AS48</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D584" t="b">
+        <v>1</v>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F584" t="n">
+        <v>0</v>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>CYAT81650-64AS48</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D585" t="b">
+        <v>1</v>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/CYAT81650-64AS48?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F585" t="n">
+        <v>0</v>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
